--- a/PDS/UC07_Test_Scenario.xlsx
+++ b/PDS/UC07_Test_Scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blest\Desktop\Sprints\upskill_java1_labprg_grupo2\PDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D839EE3C-8470-4BF9-8B3A-97D435FFCC3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD12833-0139-476D-9F7E-F4CF0CE7A7D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
   <si>
     <t>Project Name</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>TC_Login_001</t>
   </si>
   <si>
     <t>TC_Login_002</t>
@@ -86,11 +83,6 @@
   </si>
   <si>
     <t>Test Case Steps</t>
-  </si>
-  <si>
-    <t>1. Enter valid username
-2. Enter valid password
-3. Click login button</t>
   </si>
   <si>
     <t>1. Enter valid username
@@ -115,10 +107,6 @@
   </si>
   <si>
     <t>username: a@b.pt
-password: 1234</t>
-  </si>
-  <si>
-    <t>username: a@b.pt
 password: xxxx</t>
   </si>
   <si>
@@ -133,18 +121,12 @@
     <t>Post Conditions</t>
   </si>
   <si>
-    <t>The user should be able to see the homepage</t>
-  </si>
-  <si>
     <t>Error message "invalid user or password"</t>
   </si>
   <si>
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Successful login</t>
-  </si>
-  <si>
     <t>Popup Message: Invalid username or password</t>
   </si>
   <si>
@@ -152,9 +134,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
@@ -267,6 +246,71 @@
     <t>Lista de Tarefas
 Período de Publicitação Período de apresentação
 Período de seriação e adjudicação</t>
+  </si>
+  <si>
+    <t>1.	Lista de tarefas vazia
+2.	Período de publicitação: 02/01/2021
+3.	Período de apresentação: 01/02/2021
+4.	Período de seriação e adjudicação: 16/02/2021</t>
+  </si>
+  <si>
+    <t>1.	Lista de tarefas com 2 tarefas
+2.	Período de publicitação: 02/01/2021
+3.	Período de apresentação: 01/02/2021
+4.	Período de seriação e adjudicação: 16/02/2021</t>
+  </si>
+  <si>
+    <t>O utilizador deve conseguir publicar a tarefa</t>
+  </si>
+  <si>
+    <t>Tarefa publicada</t>
+  </si>
+  <si>
+    <t>Passa</t>
+  </si>
+  <si>
+    <t>UC07_TS_001</t>
+  </si>
+  <si>
+    <t>UC07_TS_002</t>
+  </si>
+  <si>
+    <t>Pub_Tarefa_002</t>
+  </si>
+  <si>
+    <t>Dados para testar</t>
+  </si>
+  <si>
+    <t>Mensagem de erro: "Não há tarefas para publicar"</t>
+  </si>
+  <si>
+    <t>Popup: Lista de tarefas inválida</t>
+  </si>
+  <si>
+    <t>Não passa</t>
+  </si>
+  <si>
+    <t>UC07_TS_003</t>
+  </si>
+  <si>
+    <t>Pub_Tarefa_003</t>
+  </si>
+  <si>
+    <t>Lista de Tarefas válida
+Período de Publicitação válido Período de apresentação válido
+Período de seriação e adjudicação válido</t>
+  </si>
+  <si>
+    <t>1.	Seleccionar uma tarefa da Lista de tarefas não vazia
+2.	Seleccionar um período de publicitação válido
+3.	Seleccionar um período de apresentação válido
+4.	Seleccionar um período de seriação e adjudicação válido</t>
+  </si>
+  <si>
+    <t>1.	Seleccionar uma tarefa da Lista de tarefas vazia
+2.	Seleccionar um período de publicitação válido
+3.	Seleccionar um período de apresentação válido
+4.	Seleccionar um período de seriação e adjudicação válido</t>
   </si>
 </sst>
 </file>
@@ -331,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -340,8 +384,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,75 +776,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.75"/>
-    <col min="2" max="2" width="25.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1"/>
-    <col min="4" max="6" width="24"/>
-    <col min="7" max="1026" width="10.83203125"/>
+    <col min="1" max="1" width="23.75" style="1"/>
+    <col min="2" max="2" width="25.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="24" style="1"/>
+    <col min="8" max="1027" width="10.83203125" style="1"/>
+    <col min="1028" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -801,19 +848,22 @@
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -821,175 +871,197 @@
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="93" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="124" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="B21" s="4"/>
     </row>
@@ -1073,16 +1145,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1090,156 +1162,156 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1322,16 +1394,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1344,7 +1416,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1352,7 +1424,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1360,7 +1432,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1368,7 +1440,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1376,7 +1448,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1384,7 +1456,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1392,12 +1464,12 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1405,17 +1477,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
